--- a/SICSA/13 MATRIZ DE PRUEBAS/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
+++ b/SICSA/13 MATRIZ DE PRUEBAS/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SICSA\ENTREGABLES\Matris de Pruebas Catálogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SICSA\13 MATRIZ DE PRUEBAS\Matris de Pruebas Catálogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="105">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -416,6 +416,29 @@
     <t xml:space="preserve">EL mensaje de confirmación
 al crear, eliminar, y actualizar tienen el mismo mensaje de consulta exitosa. Ajustar la
 redacción para cada unade las funcionalidades. Agregar acento en Última  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destinatarios de Oficios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manda una pantalla de error el ingresar a los menús Personal y Destinatarios de Oficios , Se sugiere agregar un rango de caracteres en cada campo como el RFC, CURP etc. Es importante que se especifique que el registro no pueda ser el mismo ya que se creo dos registros con los mismo datos
+El correo importante el @ gmail, hotmail etc 
+Error al agregar Registro </t>
+  </si>
+  <si>
+    <t>Edita registo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borra registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar registro correctamente </t>
+  </si>
+  <si>
+    <t>https://sfytgenl.atlassian.net/browse/SICSA-730</t>
   </si>
 </sst>
 </file>
@@ -708,7 +731,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -755,10 +778,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,7 +835,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1586,9 +1612,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3081,6 +3105,44 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
         <c:spPr>
           <a:gradFill flip="none" rotWithShape="1">
             <a:gsLst>
@@ -5769,7 +5831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -5873,7 +5935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -5936,7 +5998,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -5970,6 +6032,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5984,7 +6058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6291,13 +6365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6580,7 +6654,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -6610,7 +6684,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -6644,7 +6718,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -6664,7 +6738,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -6684,7 +6758,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -6704,7 +6778,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -6724,7 +6798,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -6744,7 +6818,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -6778,13 +6852,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -6807,9 +6881,9 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="42"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="21" t="s">
@@ -6826,9 +6900,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="42"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
@@ -6845,9 +6919,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
@@ -6864,9 +6938,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="21" t="s">
@@ -6883,9 +6957,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="21" t="s">
@@ -6902,9 +6976,9 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="21" t="s">
@@ -6921,9 +6995,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="21" t="s">
@@ -6955,7 +7029,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>7</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -6984,7 +7058,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -7003,7 +7077,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7022,7 +7096,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -7041,7 +7115,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -7060,7 +7134,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -7079,7 +7153,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -7098,7 +7172,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -7132,7 +7206,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="42">
         <v>8</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -7161,7 +7235,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -7180,7 +7254,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -7199,7 +7273,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -7218,7 +7292,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -7237,7 +7311,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -7256,7 +7330,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -7275,7 +7349,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -7309,7 +7383,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+      <c r="A43" s="42">
         <v>9</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -7338,7 +7412,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -7357,7 +7431,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -7376,7 +7450,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -7395,7 +7469,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -7414,7 +7488,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -7433,7 +7507,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -7452,7 +7526,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -7486,7 +7560,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="A51" s="23">
         <v>10</v>
       </c>
       <c r="B51" s="22" t="s">
@@ -7515,7 +7589,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -7534,7 +7608,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -7553,7 +7627,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -7572,7 +7646,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -7591,7 +7665,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -7610,7 +7684,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -7629,7 +7703,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -7663,7 +7737,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
+      <c r="A59" s="23">
         <v>11</v>
       </c>
       <c r="B59" s="22" t="s">
@@ -7692,7 +7766,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -7711,7 +7785,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -7730,7 +7804,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -7749,7 +7823,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -7768,7 +7842,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -7787,7 +7861,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -7806,7 +7880,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -7840,7 +7914,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
+      <c r="A67" s="42">
         <v>12</v>
       </c>
       <c r="B67" s="22" t="s">
@@ -7869,7 +7943,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -7888,7 +7962,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -7907,7 +7981,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -7926,7 +8000,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -7945,7 +8019,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -7964,7 +8038,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -7983,7 +8057,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -8370,35 +8444,208 @@
         <v>45156</v>
       </c>
     </row>
+    <row r="91" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
+        <v>15</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="N91" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N92" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N93" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="23">
+        <v>16</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L94" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="N94" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N95" s="1">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="23"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N96" s="1">
+        <v>45314</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
+  <mergeCells count="67">
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="A59:A66"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="E51:E58"/>
     <mergeCell ref="D51:D58"/>
@@ -8409,26 +8656,33 @@
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="E83:E90"/>
-    <mergeCell ref="D83:D90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8443,9 +8697,11 @@
     <hyperlink ref="M74" r:id="rId10"/>
     <hyperlink ref="M82" r:id="rId11"/>
     <hyperlink ref="M90" r:id="rId12"/>
+    <hyperlink ref="M91" r:id="rId13"/>
+    <hyperlink ref="M94" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -8465,7 +8721,7 @@
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K12 K14:K19 K26 K34 K42 K50 K58 K66 K74 K82 K90 K6</xm:sqref>
+          <xm:sqref>K14:K19 K26 K34 K42 K50 K58 K66 K74 K82 K90 K6:K12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8483,7 +8739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
